--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4091085.184949271</v>
+        <v>4084068.170057559</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>142.6621898072145</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>307.7676307244763</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -794,7 +794,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888678</v>
+        <v>225.8879277888687</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -822,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>59.6638564154455</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>83.59830597394804</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>230.7427785993218</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>48.40386175164942</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>123.4514883688808</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>229.5889480231529</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>78.10065894224091</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>163.9206648785249</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>49.58595117973795</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274103</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>39.11561436815801</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1587,13 +1587,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>61.8620910510412</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T16" t="n">
-        <v>97.12772045570696</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.779135052741</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1940,10 +1940,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014455</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
-        <v>143.315822205649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274051</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498017</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2177,10 +2177,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014431</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2241,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>22.42123215846494</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>211.2541671901477</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>34.22759348994876</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2608,7 +2608,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>57.97948033333861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>220.2131102961575</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>202.5457551949521</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>201.6473422926464</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111317</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274077</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>72.14107628195018</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527407</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3663,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>45.90234712787137</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>45.72523033531994</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>143.2925104849745</v>
       </c>
       <c r="W46" t="n">
-        <v>54.6863244596417</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.1098286224635</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="C2" t="n">
-        <v>546.1098286224635</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="D2" t="n">
-        <v>546.1098286224635</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="E2" t="n">
-        <v>402.0066065949741</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.483574129469</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859355</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982752</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.1098286224635</v>
+        <v>936.2491605982761</v>
       </c>
     </row>
     <row r="3">
@@ -4406,40 +4406,40 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598704</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036444</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036444</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036444</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1408.083041312479</v>
+        <v>1017.998017761265</v>
       </c>
       <c r="C5" t="n">
-        <v>1039.120524372067</v>
+        <v>649.0355008208533</v>
       </c>
       <c r="D5" t="n">
-        <v>1039.120524372067</v>
+        <v>649.0355008208533</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>263.247248222609</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>256.3017474734056</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2147.451536646714</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W5" t="n">
-        <v>1794.6828813766</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="X5" t="n">
-        <v>1794.6828813766</v>
+        <v>1794.737189801198</v>
       </c>
       <c r="Y5" t="n">
-        <v>1794.6828813766</v>
+        <v>1404.597857825387</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,22 +4646,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>603.4305111065548</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>603.4305111065548</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245969</v>
+        <v>603.4305111065548</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245969</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1284.970060705655</v>
+        <v>443.7744035713887</v>
       </c>
       <c r="C8" t="n">
-        <v>916.0075437652436</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="D8" t="n">
-        <v>557.7418451584931</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2531.572661847995</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2531.572661847995</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2277.810876486087</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.575150942547</v>
+        <v>1946.747989142516</v>
       </c>
       <c r="W8" t="n">
-        <v>2048.575150942547</v>
+        <v>1593.979333872402</v>
       </c>
       <c r="X8" t="n">
-        <v>1675.109392681467</v>
+        <v>1220.513575611322</v>
       </c>
       <c r="Y8" t="n">
-        <v>1284.970060705655</v>
+        <v>830.3742436355105</v>
       </c>
     </row>
     <row r="9">
@@ -4898,10 +4898,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.2080756496231</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>409.2948950230958</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>409.2948950230958</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>409.2948950230958</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5020,22 +5020,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155891</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805472</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822465</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028587</v>
@@ -5044,43 +5044,43 @@
         <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>745.6707680030233</v>
+        <v>638.3691419079764</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028587</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>874.927113122792</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>874.927113122792</v>
+        <v>923.515255903349</v>
       </c>
       <c r="W13" t="n">
-        <v>585.5099430858313</v>
+        <v>634.0980858663885</v>
       </c>
       <c r="X13" t="n">
-        <v>357.520392187814</v>
+        <v>634.0980858663885</v>
       </c>
       <c r="Y13" t="n">
-        <v>136.7278130442839</v>
+        <v>413.3055067228584</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,34 +5263,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5302,10 +5302,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>1089.812348494162</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>800.6837097077201</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>545.9992215018333</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5500,46 +5500,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805473</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822465</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823777</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514065</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619122</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643317</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899119</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2911.709630095315</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>3158.474758001779</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>3465.79489128174</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>3795.657518945772</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>4242.791036724024</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>4763.09165845977</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>4850.224560916993</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688067</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799356</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471179</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473452</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262958</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765161</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706293</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336687</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>241.9805482336687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,58 +5728,58 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823718</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514022</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795201</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619125</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5816,37 +5816,37 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256438</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.598437470157</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1163.495507227046</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1503.408902298182</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1833.271529962216</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2112.811595180914</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2317.834075963124</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>711.3743239205529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.599783924196</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688077</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799374</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471208</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974669</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557905</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557905</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1476.268561306931</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1221.584073101044</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>932.166903064083</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X22" t="n">
-        <v>932.166903064083</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>711.3743239205529</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5986,13 +5986,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6013,28 +6013,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1912.313820009359</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2432.614441745106</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.9563154684962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1264.422933715931</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1264.422933715931</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1009.738445510044</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>1009.738445510044</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>781.7488946120263</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>560.9563154684962</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6223,55 +6223,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.607977814708</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4076.539318291367</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3907.60313536346</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3757.486495951125</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014291</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014291</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>4860.854573014291</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>4606.170084808405</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>4316.752914771444</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>4316.752914771444</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>4258.187783121607</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1165.403681972094</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>876.2750431856521</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>876.2750431856521</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>586.8578731486914</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6712,13 +6712,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6779,28 +6779,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>245.130185042679</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C34" t="n">
-        <v>245.130185042679</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D34" t="n">
-        <v>245.130185042679</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>983.329485121187</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>983.329485121187</v>
+        <v>1071.446671213422</v>
       </c>
       <c r="V34" t="n">
-        <v>983.329485121187</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W34" t="n">
-        <v>693.9123150842264</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X34" t="n">
-        <v>465.9227641862091</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y34" t="n">
-        <v>245.130185042679</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="35">
@@ -6928,19 +6928,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6949,13 +6949,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2649.889045452863</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>2896.654173359327</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>3203.974306639288</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>4008.385884903439</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>4287.925950122136</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>4773.721670557069</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4279.002365959436</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>4110.066183031529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>4110.066183031529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3962.153089449136</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4749.779469576118</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>4749.779469576118</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>4460.650830789676</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>4460.650830789676</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>4460.650830789676</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>4460.650830789676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>4460.650830789676</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7195,16 +7195,16 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>190.6805289025654</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>339.7502131046252</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>953.6472828615139</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N39" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>588.5027791527951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1098.712528333286</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>1098.712528333286</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>809.2953582963253</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>809.2953582963253</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>588.5027791527951</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805473</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7426,37 +7426,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2786.879505108311</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>3033.644633014776</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3340.964766294737</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>3670.82739395877</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4034.81452186553</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4555.115143601278</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>4850.224560916992</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4251.296547201589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>4082.360364273682</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>4036.173262924874</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>4036.173262924874</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4660.934562929845</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>4660.934562929845</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>4660.934562929845</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>4660.934562929845</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>4660.934562929845</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>4432.945012031828</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>4432.945012031828</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,52 +7627,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>901.674922584592</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.043068977053</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N45" t="n">
-        <v>1999.905696641086</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O45" t="n">
-        <v>2279.445761859783</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
         <v>2536.440602918915</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>413.0432218861031</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C46" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1098.712528333286</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>1098.712528333286</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="W46" t="n">
-        <v>1043.47381675789</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X46" t="n">
-        <v>815.4842658598729</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y46" t="n">
-        <v>594.6916867163428</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050812</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>422.286579409329</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>87.16935584025373</v>
+        <v>104.8749102765748</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9257,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>169.286315716723</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720663</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9479,16 +9479,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>32.92248665775071</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
-        <v>104.8749102765746</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298203</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,28 +9956,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>73.64859338270696</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>41.75994765618401</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,16 +10427,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>308.1251096272039</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10676,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>283.6093329825493</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10843,10 +10843,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,25 +10901,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>52.49733361305245</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>180.0237016735874</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>85.30006332127573</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>29.47535963978225</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11390,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>52.497333613053</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>140.7163658137793</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,13 +23424,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>190.2755522727868</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T16" t="n">
-        <v>124.4198406026823</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23907,10 +23907,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
-        <v>75.26883114644582</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>263.8161202401124</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>75.26883114644332</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24366,16 +24366,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>187.3199675684405</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,7 +24618,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>160.6051730187562</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.334450762231711</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>19.00180586343717</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>84.59001010593096</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>73.27997174098107</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25551,16 +25551,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>121.3444739707565</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>102.8902426828924</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -26079,13 +26079,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="W46" t="n">
-        <v>231.8366738769493</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>632775.433545766</v>
+        <v>632775.4335457659</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>632775.4335457658</v>
+        <v>632775.4335457659</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>632775.4335457658</v>
+        <v>632775.4335457659</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>632775.433545766</v>
+        <v>632775.4335457659</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>632775.433545766</v>
+        <v>632775.4335457659</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>632775.433545766</v>
+        <v>632775.4335457659</v>
       </c>
     </row>
     <row r="15">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="C2" t="n">
         <v>779989.681371069</v>
@@ -26322,40 +26322,40 @@
         <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
-        <v>742955.2135016469</v>
+        <v>742955.2135016468</v>
       </c>
       <c r="F2" t="n">
-        <v>742955.2135016469</v>
+        <v>742955.2135016473</v>
       </c>
       <c r="G2" t="n">
+        <v>742955.2135016473</v>
+      </c>
+      <c r="H2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="I2" t="n">
         <v>742955.2135016471</v>
-      </c>
-      <c r="H2" t="n">
-        <v>742955.213501647</v>
-      </c>
-      <c r="I2" t="n">
-        <v>742955.2135016472</v>
       </c>
       <c r="J2" t="n">
         <v>742955.2135016473</v>
       </c>
       <c r="K2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="L2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="M2" t="n">
         <v>742955.2135016471</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>742955.2135016473</v>
       </c>
-      <c r="M2" t="n">
-        <v>742955.2135016475</v>
-      </c>
-      <c r="N2" t="n">
-        <v>742955.2135016466</v>
-      </c>
       <c r="O2" t="n">
-        <v>742955.2135016473</v>
+        <v>742955.2135016471</v>
       </c>
       <c r="P2" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016472</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145443</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26401,10 +26401,10 @@
         <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>6.002665031701325e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.310193849552888e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26426,40 +26426,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007443</v>
       </c>
       <c r="F4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="G4" t="n">
         <v>7916.731656007485</v>
       </c>
-      <c r="G4" t="n">
-        <v>7916.731656007489</v>
-      </c>
       <c r="H4" t="n">
-        <v>7916.731656007463</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="J4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007525</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="M4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007538</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007487</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26481,19 +26481,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871668</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
@@ -26508,7 +26508,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-40754.32462280573</v>
+        <v>-40754.3246228058</v>
       </c>
       <c r="C6" t="n">
         <v>549213.5545917387</v>
@@ -26530,40 +26530,40 @@
         <v>549213.5545917387</v>
       </c>
       <c r="E6" t="n">
-        <v>117891.1194200266</v>
+        <v>116916.5281603048</v>
       </c>
       <c r="F6" t="n">
-        <v>643051.1558969228</v>
+        <v>642076.5646372016</v>
       </c>
       <c r="G6" t="n">
-        <v>643051.1558969243</v>
+        <v>642076.5646372016</v>
       </c>
       <c r="H6" t="n">
-        <v>643051.1558969228</v>
+        <v>642076.5646372015</v>
       </c>
       <c r="I6" t="n">
-        <v>643051.1558969244</v>
+        <v>642076.5646372014</v>
       </c>
       <c r="J6" t="n">
-        <v>466627.9367043305</v>
+        <v>465653.3454446086</v>
       </c>
       <c r="K6" t="n">
-        <v>643051.155896923</v>
+        <v>642076.5646372015</v>
       </c>
       <c r="L6" t="n">
-        <v>643051.1558969233</v>
+        <v>642076.5646372015</v>
       </c>
       <c r="M6" t="n">
-        <v>508250.1406630862</v>
+        <v>507275.5494033642</v>
       </c>
       <c r="N6" t="n">
-        <v>643051.1558969223</v>
+        <v>642076.5646372016</v>
       </c>
       <c r="O6" t="n">
-        <v>643051.155896923</v>
+        <v>642076.5646372014</v>
       </c>
       <c r="P6" t="n">
-        <v>643051.1558969232</v>
+        <v>642076.5646372015</v>
       </c>
     </row>
   </sheetData>
@@ -26721,13 +26721,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054540987</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541019</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26776,7 +26776,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.664428874668109e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26998,10 +26998,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.287272754555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>239.2681802650473</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>99.10841501723513</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27514,7 +27514,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27542,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>96.50703242634964</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>202.924692362643</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>151.18759147294</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>365.3803082691456</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,10 +27782,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>88.6940505811381</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27833,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>56.93405031343806</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>303.8297111300209</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>10.49504793044667</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>130.2460290021994</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29517,7 +29517,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565508</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540876</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104635</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127053</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361476</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263746</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337657</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892233</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351799</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443623</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.327311296121</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041496</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130445</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956553</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927197</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540897</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130947002</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647503</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446482</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104664</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562947</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386729</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127076</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622988</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358992</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724855</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813471</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855535</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458556</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710961</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677471</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361504</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990348</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298639</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171324</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263755</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469077</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235694</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337683</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336906</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892258</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351831</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730077</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>336.4270607962781</v>
+        <v>354.1326152325991</v>
       </c>
       <c r="M12" t="n">
         <v>776.1294408004662</v>
@@ -35506,10 +35506,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303322</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221106</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081107</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951462</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349771</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953152</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005173</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560236</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504654</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.194573398012</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>451.6500179578304</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714611</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507368</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686844</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556533</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299102</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118004</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187452</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415009</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303338</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221128</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408113</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951483</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502055</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034985</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.910178954907</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005184</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594842</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>343.3468637082179</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980137</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.363702241109</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315253</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209237</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686886</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556574</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.214186879929</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.309841178973</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056041</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206033</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.225699971875</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980128</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
-        <v>192.8879430616487</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>406.8431667807198</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>374.9545210541968</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>10.73738595686864</v>
@@ -37077,7 +37077,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37089,7 +37089,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
         <v>59.82538970349808</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>618.5494866776701</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37396,19 +37396,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>490.7027479140739</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37563,10 +37563,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>94.4075125679591</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>513.2182750716003</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>88.0130327850741</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>367.663765562384</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38101,7 +38101,7 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>278.7330645958065</v>
       </c>
       <c r="M45" t="n">
         <v>776.1294408004661</v>
@@ -38110,10 +38110,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>259.5907485445777</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>88.0130327850741</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4084068.170057559</v>
+        <v>4089007.432906591</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>307.7676307244763</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>314.6757550035595</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -794,7 +794,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888687</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,10 +831,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>59.6638564154455</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>48.40386175164942</v>
+        <v>222.819574560621</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>123.4514883688808</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>195.7571515107713</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>15.14483238681421</v>
       </c>
       <c r="S8" t="n">
-        <v>163.9206648785249</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>59.7268375758684</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>129.0246247964034</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701363</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>61.8620910510412</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>75.09631833451721</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>166.3436523797868</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>122.6519788371605</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>211.2541671901477</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>122.6519788371605</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2794,10 +2794,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710091</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896933</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>139.153727875004</v>
       </c>
       <c r="U34" t="n">
-        <v>201.6473422926464</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.287249111317</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002178</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>143.2925104849745</v>
+        <v>143.2925104849749</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982761</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>936.2491605982761</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>936.2491605982761</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>936.2491605982761</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>525.2632558086682</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4327,16 +4327,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,10 +4348,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4360,10 +4360,10 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.546461473041</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
         <v>1662.48357412947</v>
@@ -4372,10 +4372,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982761</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982761</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4385,31 +4385,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
         <v>309.190302261463</v>
@@ -4430,22 +4430,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>578.0123447940987</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>430.0992512117056</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>283.2093037137952</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>114.2095034521276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1017.998017761265</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C5" t="n">
-        <v>649.0355008208533</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D5" t="n">
-        <v>649.0355008208533</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="E5" t="n">
-        <v>263.247248222609</v>
+        <v>439.4247359084389</v>
       </c>
       <c r="F5" t="n">
-        <v>256.3017474734056</v>
+        <v>432.4792351592354</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2168.202948062278</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>1794.737189801198</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y5" t="n">
-        <v>1404.597857825387</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>603.4305111065548</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>603.4305111065548</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>603.4305111065548</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>348.7460229006679</v>
+        <v>530.3944877309076</v>
       </c>
       <c r="W7" t="n">
-        <v>348.7460229006679</v>
+        <v>530.3944877309076</v>
       </c>
       <c r="X7" t="n">
-        <v>348.7460229006679</v>
+        <v>530.3944877309076</v>
       </c>
       <c r="Y7" t="n">
-        <v>348.7460229006679</v>
+        <v>530.3944877309076</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>443.7744035713887</v>
+        <v>847.8148076117928</v>
       </c>
       <c r="C8" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="S8" t="n">
-        <v>2531.572661847995</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="T8" t="n">
-        <v>2531.572661847995</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="U8" t="n">
-        <v>2277.810876486087</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="V8" t="n">
-        <v>1946.747989142516</v>
+        <v>2350.788393182921</v>
       </c>
       <c r="W8" t="n">
-        <v>1593.979333872402</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="X8" t="n">
-        <v>1220.513575611322</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="Y8" t="n">
-        <v>830.3742436355105</v>
+        <v>1234.414647675915</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4895,13 +4895,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551154</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5032,16 +5032,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514086</v>
@@ -5053,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5077,10 +5077,10 @@
         <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5123,19 +5123,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L12" t="n">
-        <v>638.3691419079764</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M12" t="n">
         <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>413.3055067228584</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C13" t="n">
-        <v>413.3055067228584</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D13" t="n">
-        <v>413.3055067228584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
         <v>265.3924131404652</v>
@@ -5199,7 +5199,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
@@ -5208,7 +5208,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>923.515255903349</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W13" t="n">
-        <v>634.0980858663885</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="X13" t="n">
-        <v>634.0980858663885</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="Y13" t="n">
-        <v>413.3055067228584</v>
+        <v>879.2482765610114</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,22 +5290,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1503.408902298184</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P15" t="n">
         <v>2317.834075963124</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>587.1592421884125</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5512,37 +5512,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
         <v>2317.834075963124</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1375.025382843599</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>318.009670603816</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="20">
@@ -5749,34 +5749,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2317.834075963124</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>318.0096706038159</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6007,34 +6007,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2317.834075963124</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1375.025382843599</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6205,13 +6205,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
         <v>904.3190116155888</v>
@@ -6223,10 +6223,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6238,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6250,22 +6250,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2317.834075963124</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1071.446671213422</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>816.762183007535</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>527.3450129705744</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="35">
@@ -6916,19 +6916,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,13 +6937,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6958,7 +6958,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7004,13 +7004,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7019,25 +7019,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,31 +7113,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
         <v>97.21709146028584</v>
@@ -7162,31 +7162,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7198,7 +7198,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7241,37 +7241,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>190.6805289025654</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>339.7502131046252</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>953.6472828615139</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,49 +7390,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,25 +7493,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,13 +7587,13 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
         <v>1382.222354598086</v>
@@ -7636,49 +7636,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7715,37 +7715,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7797,13 +7797,13 @@
         <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,22 +7824,22 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V46" t="n">
         <v>1354.17636097712</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,13 +8771,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>104.8749102765748</v>
+        <v>306.1147370139954</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>277.6717966208054</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>52.49733361305245</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>29.47535963978225</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>190.2755522727868</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>143.4883350175776</v>
       </c>
     </row>
     <row r="14">
@@ -23670,10 +23670,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>120.1793459568042</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>75.26883114644278</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>75.26883114644332</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>75.26883114644278</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="U34" t="n">
-        <v>84.59001010593096</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338545</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>108.8451328388535</v>
+        <v>108.8451328388531</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>632775.4335457659</v>
+        <v>632775.4335457658</v>
       </c>
     </row>
     <row r="7">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>632775.4335457659</v>
+        <v>632775.433545766</v>
       </c>
     </row>
     <row r="14">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="C2" t="n">
         <v>779989.681371069</v>
@@ -26322,13 +26322,13 @@
         <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
-        <v>742955.2135016468</v>
+        <v>742955.2135016469</v>
       </c>
       <c r="F2" t="n">
         <v>742955.2135016473</v>
       </c>
       <c r="G2" t="n">
-        <v>742955.2135016473</v>
+        <v>742955.2135016471</v>
       </c>
       <c r="H2" t="n">
         <v>742955.2135016472</v>
@@ -26337,25 +26337,25 @@
         <v>742955.2135016471</v>
       </c>
       <c r="J2" t="n">
-        <v>742955.2135016473</v>
+        <v>742955.2135016472</v>
       </c>
       <c r="K2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.213501647</v>
       </c>
       <c r="L2" t="n">
         <v>742955.2135016472</v>
       </c>
       <c r="M2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="N2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="O2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="P2" t="n">
         <v>742955.2135016471</v>
-      </c>
-      <c r="N2" t="n">
-        <v>742955.2135016473</v>
-      </c>
-      <c r="O2" t="n">
-        <v>742955.2135016471</v>
-      </c>
-      <c r="P2" t="n">
-        <v>742955.2135016472</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007443</v>
+        <v>7916.731656007401</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007396</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007444</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007525</v>
+        <v>7916.731656007401</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007401</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007481</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.73165600748</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.73165600748</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.73165600748</v>
       </c>
     </row>
     <row r="5">
@@ -26469,46 +26469,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-40754.3246228058</v>
+        <v>-40754.3246228059</v>
       </c>
       <c r="C6" t="n">
         <v>549213.5545917387</v>
@@ -26530,40 +26530,40 @@
         <v>549213.5545917387</v>
       </c>
       <c r="E6" t="n">
-        <v>116916.5281603048</v>
+        <v>117793.6602940544</v>
       </c>
       <c r="F6" t="n">
-        <v>642076.5646372016</v>
+        <v>642953.6967709512</v>
       </c>
       <c r="G6" t="n">
-        <v>642076.5646372016</v>
+        <v>642953.6967709509</v>
       </c>
       <c r="H6" t="n">
-        <v>642076.5646372015</v>
+        <v>642953.696770951</v>
       </c>
       <c r="I6" t="n">
-        <v>642076.5646372014</v>
+        <v>642953.6967709509</v>
       </c>
       <c r="J6" t="n">
-        <v>465653.3454446086</v>
+        <v>466530.4775783579</v>
       </c>
       <c r="K6" t="n">
-        <v>642076.5646372015</v>
+        <v>642953.6967709509</v>
       </c>
       <c r="L6" t="n">
-        <v>642076.5646372015</v>
+        <v>642953.6967709512</v>
       </c>
       <c r="M6" t="n">
-        <v>507275.5494033642</v>
+        <v>508152.6815371139</v>
       </c>
       <c r="N6" t="n">
-        <v>642076.5646372016</v>
+        <v>642953.696770951</v>
       </c>
       <c r="O6" t="n">
-        <v>642076.5646372014</v>
+        <v>642953.696770951</v>
       </c>
       <c r="P6" t="n">
-        <v>642076.5646372015</v>
+        <v>642953.6967709509</v>
       </c>
     </row>
   </sheetData>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26804,7 +26804,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26816,10 +26816,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>99.10841501723513</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>99.10841501723553</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>96.50703242634964</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>365.3803082691456</v>
+        <v>190.964595460174</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>88.6940505811381</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>56.38049181305666</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27864,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>39.3335701879975</v>
       </c>
       <c r="S8" t="n">
-        <v>10.49504793044667</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28067,13 +28067,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29517,7 +29517,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31755,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>130.3926104730631</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35263,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>354.1326152325991</v>
+        <v>555.3724419700197</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
@@ -35506,10 +35506,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768298</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.4075125679591</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>278.7330645958065</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
